--- a/data/case6.xlsx
+++ b/data/case6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abuga\OneDrive\Desktop\PhD\code\OPF\OPF Formulation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abuga\OneDrive\Desktop\PhD\code\OPF\Source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{D14B2783-85C9-467D-9728-6769B2420EF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6B80FDA4-A747-4079-BB16-61C3467EAA8F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{D14B2783-85C9-467D-9728-6769B2420EF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C0173D61-CAC2-433A-8CD6-915D5E5F7442}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{46D4AAAF-2334-4820-91C7-6F8EF6AFCF98}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
   <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>15</v>
